--- a/data/long_bre/P18_6-Edad-long_bre.xlsx
+++ b/data/long_bre/P18_6-Edad-long_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:J60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -599,37 +615,47 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-2,72</t>
+          <t>-4,69</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7,87</t>
+          <t>7,5</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-11,0</t>
+          <t>-10,55</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-9,62%</t>
+          <t>-8,82</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>28,81%</t>
+          <t>-16,73%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-27,84%</t>
+          <t>28,08%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-26,04%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-27,34%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-14,11; 9,09</t>
+          <t>-15,76; 7,15</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,05; 21,08</t>
+          <t>-5,05; 20,84</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-23,56; 2,93</t>
+          <t>-23,45; 2,36</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-41,07; 40,87</t>
+          <t>-24,96; 6,61</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-14,55; 107,65</t>
+          <t>-47,97; 30,47</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-50,44; 9,44</t>
+          <t>-15,65; 107,77</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-48,97; 8,03</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-59,39; 31,19</t>
         </is>
       </c>
     </row>
@@ -675,37 +711,47 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-4,48</t>
+          <t>-4,39</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-1,58</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,66</t>
+          <t>1,68</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-10,42%</t>
+          <t>6,84</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-4,41%</t>
+          <t>-10,03%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>3,8%</t>
+          <t>0,65%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>3,94%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>18,87%</t>
         </is>
       </c>
     </row>
@@ -718,32 +764,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-17,26; 9,0</t>
+          <t>-16,95; 8,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-16,45; 11,57</t>
+          <t>-13,11; 15,12</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-12,84; 15,87</t>
+          <t>-11,73; 14,52</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-34,57; 24,44</t>
+          <t>-8,56; 23,16</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-37,95; 41,14</t>
+          <t>-33,97; 21,89</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-25,65; 44,59</t>
+          <t>-30,88; 56,03</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-23,96; 43,38</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-18,48; 92,44</t>
         </is>
       </c>
     </row>
@@ -751,37 +807,47 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7,2</t>
+          <t>9,08</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-6,29</t>
+          <t>-7,72</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>9,34</t>
+          <t>8,87</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>25,02%</t>
+          <t>1,98</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-17,1%</t>
+          <t>32,25%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>55,78%</t>
+          <t>-19,99%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>52,91%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>6,29%</t>
         </is>
       </c>
     </row>
@@ -794,74 +860,90 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,89; 19,1</t>
+          <t>-2,77; 21,09</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-21,22; 8,32</t>
+          <t>-23,06; 5,68</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 19,56</t>
+          <t>-2,39; 19,73</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-14,19; 89,59</t>
+          <t>-17,57; 16,46</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-45,17; 31,25</t>
+          <t>-9,0; 95,95</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,91; 181,54</t>
+          <t>-48,93; 19,33</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-11,64; 179,54</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-39,86; 77,18</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,12</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,15</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-0,81</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>22,17%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>10,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-2,4%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -874,70 +956,94 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,01; 14,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-10,07; 16,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-12,56; 10,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-21,33; 118,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-26,29; 74,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-31,17; 39,96</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-6,53</t>
+          <t>4,89</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-3,58</t>
+          <t>2,76</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,94</t>
+          <t>-1,17</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-15,74%</t>
+          <t>6,53</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-6,88%</t>
+          <t>26,66%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-4,16%</t>
+          <t>9,22%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-3,47%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>23,02%</t>
         </is>
       </c>
     </row>
@@ -950,32 +1056,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-21,5; 6,36</t>
+          <t>-5,97; 15,67</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-19,5; 10,44</t>
+          <t>-9,72; 15,24</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-15,32; 10,24</t>
+          <t>-13,26; 10,38</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-42,17; 19,39</t>
+          <t>-11,28; 21,44</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-31,93; 24,07</t>
+          <t>-24,84; 120,57</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-28,23; 26,97</t>
+          <t>-26,05; 67,87</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-32,46; 39,69</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-30,25; 115,78</t>
         </is>
       </c>
     </row>
@@ -983,37 +1099,47 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2,41</t>
+          <t>-6,28</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,43</t>
+          <t>-4,14</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>2,74</t>
+          <t>-1,22</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>6,04%</t>
+          <t>-3,88</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>2,34%</t>
+          <t>-15,3%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>13,82%</t>
+          <t>-7,93%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-2,64%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-8,59%</t>
         </is>
       </c>
     </row>
@@ -1026,74 +1152,90 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-12,09; 15,96</t>
+          <t>-20,44; 7,81</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-10,24; 10,82</t>
+          <t>-19,79; 10,6</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-13,51; 13,2</t>
+          <t>-13,78; 12,04</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-25,01; 52,88</t>
+          <t>-27,16; 11,55</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-40,55; 84,88</t>
+          <t>-42,03; 24,52</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-45,76; 106,09</t>
+          <t>-32,31; 25,58</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-25,27; 32,66</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-45,24; 34,29</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,74</t>
+          <t>1,39</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>7,87</t>
+          <t>1,38</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>7,25</t>
+          <t>2,39</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>12,5%</t>
+          <t>-2,65</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>24,11%</t>
+          <t>3,41%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>31,14%</t>
+          <t>7,76%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>11,77%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>-10,03%</t>
         </is>
       </c>
     </row>
@@ -1106,32 +1248,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-12,86; 12,67</t>
+          <t>-15,99; 14,65</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 17,31</t>
+          <t>-8,95; 11,79</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 15,34</t>
+          <t>-18,69; 13,05</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-41,14; 89,0</t>
+          <t>-14,87; 12,34</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-7,73; 64,03</t>
+          <t>-31,15; 45,58</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,16; 84,25</t>
+          <t>-37,95; 89,71</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-56,45; 106,42</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-42,83; 73,08</t>
         </is>
       </c>
     </row>
@@ -1139,37 +1291,47 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-4,76</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-1,76</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-10,35</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-11,69%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-4,34%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-19,64%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1182,70 +1344,94 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-17,15; 7,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-12,53; 9,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-19,9; -0,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-34,18; 25,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-26,21; 30,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-33,86; -1,75</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>2,02</t>
+          <t>1,37</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-6,11</t>
+          <t>6,95</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>3,1</t>
+          <t>7,34</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>5,4%</t>
+          <t>-12,34</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-22,85%</t>
+          <t>6,22%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>12,9%</t>
+          <t>20,7%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>32,08%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-31,71%</t>
         </is>
       </c>
     </row>
@@ -1258,74 +1444,90 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-11,9; 13,73</t>
+          <t>-11,43; 11,1</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-18,41; 2,8</t>
+          <t>-2,82; 18,43</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-5,16; 10,63</t>
+          <t>-0,64; 15,46</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-24,88; 47,08</t>
+          <t>-23,18; -1,78</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-51,6; 13,81</t>
+          <t>-37,74; 73,54</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-18,27; 53,99</t>
+          <t>-6,29; 70,82</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-2,52; 84,47</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-49,7; -4,99</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>45-54</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>6,41</t>
+          <t>-6,8</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>4,62</t>
+          <t>-0,51</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-0,97</t>
+          <t>-9,38</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>34,64%</t>
+          <t>4,56</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>13,7%</t>
+          <t>-15,62%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-3,82%</t>
+          <t>-1,3%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-17,88%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>12,78%</t>
         </is>
       </c>
     </row>
@@ -1338,32 +1540,42 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 14,18</t>
+          <t>-18,81; 4,55</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-4,52; 14,09</t>
+          <t>-11,67; 10,13</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-9,28; 6,16</t>
+          <t>-18,87; 0,29</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-5,84; 91,82</t>
+          <t>-6,64; 13,82</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-11,59; 49,86</t>
+          <t>-35,73; 13,5</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-29,64; 29,74</t>
+          <t>-25,18; 33,13</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-32,79; 0,54</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-15,63; 45,74</t>
         </is>
       </c>
     </row>
@@ -1371,37 +1583,47 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-6,38</t>
+          <t>5,44</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>1,41</t>
+          <t>-6,44</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-5,38</t>
+          <t>2,04</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-13,89%</t>
+          <t>7,77</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>3,45%</t>
+          <t>15,76%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-9,94%</t>
+          <t>-23,86%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>8,27%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>30,61%</t>
         </is>
       </c>
     </row>
@@ -1414,32 +1636,42 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-15,56; 3,4</t>
+          <t>-5,2; 15,5</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-8,72; 10,63</t>
+          <t>-19,59; 3,4</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-13,45; 3,75</t>
+          <t>-5,58; 9,2</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-30,86; 8,62</t>
+          <t>-2,19; 17,39</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-19,1; 30,48</t>
+          <t>-12,69; 53,58</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-22,57; 7,53</t>
+          <t>-54,63; 17,7</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-19,8; 44,79</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>-6,88; 89,5</t>
         </is>
       </c>
     </row>
@@ -1447,37 +1679,47 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-0,03</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-6,03</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>6,34</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-0,07%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-23,78%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>30,86%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1490,74 +1732,94 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-9,39; 8,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-16,34; 2,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 13,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-23,45; 27,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-49,41; 12,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 82,37</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>55-64</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>2,25</t>
+          <t>5,76</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>2,7</t>
+          <t>4,9</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-3,66</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>9,59%</t>
+          <t>-5,61</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>8,43%</t>
+          <t>31,45%</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-12,5%</t>
+          <t>14,82%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>-0,26%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>-16,5%</t>
         </is>
       </c>
     </row>
@@ -1570,32 +1832,42 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-9,97; 12,23</t>
+          <t>-1,91; 13,07</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-8,49; 13,77</t>
+          <t>-3,87; 14,06</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-11,94; 4,59</t>
+          <t>-7,03; 7,55</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-32,81; 68,87</t>
+          <t>-20,7; 4,17</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-23,55; 55,07</t>
+          <t>-10,37; 84,84</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-36,49; 19,28</t>
+          <t>-10,74; 50,13</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>-24,83; 37,63</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>-44,66; 16,68</t>
         </is>
       </c>
     </row>
@@ -1603,37 +1875,47 @@
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-12,36</t>
+          <t>-5,85</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-6,68</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>2,94</t>
+          <t>-6,5</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-23,87%</t>
+          <t>-0,58</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-13,1%</t>
+          <t>-12,7%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>6,37%</t>
+          <t>1,54%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>-11,86%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>-1,36%</t>
         </is>
       </c>
     </row>
@@ -1646,32 +1928,42 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-24,08; -1,43</t>
+          <t>-15,49; 3,85</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-17,49; 6,88</t>
+          <t>-8,47; 9,88</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-6,58; 12,77</t>
+          <t>-15,46; 1,89</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-41,3; -2,86</t>
+          <t>-10,56; 11,36</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-31,96; 14,23</t>
+          <t>-30,55; 7,98</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-12,92; 30,51</t>
+          <t>-18,42; 27,67</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-26,42; 3,91</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-22,36; 32,73</t>
         </is>
       </c>
     </row>
@@ -1679,37 +1971,47 @@
       <c r="A32" s="1" t="n"/>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>10,11</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>3,98</t>
+          <t>-5,54</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>6,56</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>40,83%</t>
+          <t>6,19</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>23,44%</t>
+          <t>0,27%</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>2,94%</t>
+          <t>-22,05%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>32,11%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>26,55%</t>
         </is>
       </c>
     </row>
@@ -1722,74 +2024,90 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>0,61; 20,24</t>
+          <t>-8,69; 8,76</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-5,63; 13,47</t>
+          <t>-15,12; 3,57</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-8,3; 8,83</t>
+          <t>-0,73; 13,73</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>1,93; 101,47</t>
+          <t>-2,14; 15,92</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-26,75; 101,48</t>
+          <t>-21,76; 28,7</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-28,67; 42,43</t>
+          <t>-48,35; 19,47</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>-3,24; 81,18</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>-7,91; 90,48</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>16,63</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>3,13</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>0,06%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>71,6%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>11,95%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1802,70 +2120,94 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-12,73; 11,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>1,61; 29,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-8,4; 12,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-38,15; 60,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>2,76; 185,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-27,82; 62,45</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n"/>
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>-9,79</t>
+          <t>0,83</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>-19,49</t>
+          <t>2,26</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>-0,95</t>
+          <t>-3,1</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>-19,92%</t>
+          <t>3,83</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>-35,55%</t>
+          <t>3,54%</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>-1,98%</t>
+          <t>6,95%</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>-10,67%</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>14,39%</t>
         </is>
       </c>
     </row>
@@ -1878,32 +2220,42 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-24,36; 4,56</t>
+          <t>-10,43; 10,06</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-35,98; -4,82</t>
+          <t>-9,56; 12,74</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-14,07; 10,99</t>
+          <t>-11,35; 6,75</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-41,56; 11,41</t>
+          <t>-7,76; 15,28</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-55,29; -7,96</t>
+          <t>-34,63; 55,91</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-25,39; 26,54</t>
+          <t>-24,86; 47,54</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>-34,31; 26,79</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>-25,17; 73,08</t>
         </is>
       </c>
     </row>
@@ -1911,37 +2263,47 @@
       <c r="A38" s="1" t="n"/>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>9,77</t>
+          <t>-11,83</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>2,87</t>
+          <t>-6,28</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>-2,18</t>
+          <t>2,37</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>39,37%</t>
+          <t>-2,69</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>13,06%</t>
+          <t>-22,93%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>-8,39%</t>
+          <t>-12,46%</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>5,11%</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>-6,18%</t>
         </is>
       </c>
     </row>
@@ -1954,74 +2316,90 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 20,24</t>
+          <t>-23,18; 0,24</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-8,18; 14,91</t>
+          <t>-18,6; 5,44</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-11,99; 8,42</t>
+          <t>-7,68; 12,85</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-6,97; 106,49</t>
+          <t>-14,81; 10,15</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-31,85; 89,81</t>
+          <t>-40,14; 0,52</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-37,52; 46,49</t>
+          <t>-32,41; 13,18</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>-15,13; 31,58</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>-30,01; 28,62</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A40" s="1" t="n"/>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>2,39</t>
+          <t>10,99</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>7,31</t>
+          <t>4,03</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>-0,62</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>10,6%</t>
+          <t>-1,14</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>24,3%</t>
+          <t>44,05%</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>-2,13%</t>
+          <t>23,57%</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>2,97%</t>
+        </is>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>-3,84%</t>
         </is>
       </c>
     </row>
@@ -2034,32 +2412,42 @@
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 6,74</t>
+          <t>0,75; 21,14</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>2,24; 12,3</t>
+          <t>-5,08; 12,97</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 3,26</t>
+          <t>-7,98; 8,71</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>-9,48; 33,44</t>
+          <t>-12,22; 11,58</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>6,72; 45,42</t>
+          <t>1,43; 108,25</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>-14,78; 12,24</t>
+          <t>-23,57; 94,06</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>-28,13; 44,4</t>
+        </is>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>-35,56; 50,25</t>
         </is>
       </c>
     </row>
@@ -2067,37 +2455,47 @@
       <c r="A42" s="1" t="n"/>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>-7,07</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>-5,26</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>-2,78</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>-15,69%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>-11,55%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>-5,69%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -2110,70 +2508,94 @@
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>-11,83; -1,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>-11,02; 0,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>-7,59; 2,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>-24,93; -3,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>-22,62; 0,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>-14,64; 4,24</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n"/>
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>4,68</t>
+          <t>1,78</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>-2,05</t>
+          <t>16,6</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>3,41</t>
+          <t>4,38</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>14,46%</t>
+          <t>-5,76</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>-8,41%</t>
+          <t>6,86%</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>15,5%</t>
+          <t>70,18%</t>
+        </is>
+      </c>
+      <c r="I44" s="2" t="inlineStr">
+        <is>
+          <t>16,92%</t>
+        </is>
+      </c>
+      <c r="J44" s="2" t="inlineStr">
+        <is>
+          <t>-13,42%</t>
         </is>
       </c>
     </row>
@@ -2186,47 +2608,740 @@
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 9,85</t>
+          <t>-9,94; 13,91</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>-6,69; 2,25</t>
+          <t>3,1; 28,07</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 6,96</t>
+          <t>-5,82; 13,84</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 33,68</t>
+          <t>-21,74; 10,68</t>
         </is>
       </c>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>-24,88; 10,71</t>
+          <t>-31,47; 72,08</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>-3,93; 35,74</t>
+          <t>8,2; 168,48</t>
+        </is>
+      </c>
+      <c r="I45" s="2" t="inlineStr">
+        <is>
+          <t>-19,56; 66,84</t>
+        </is>
+      </c>
+      <c r="J45" s="2" t="inlineStr">
+        <is>
+          <t>-42,7; 32,78</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n"/>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>-8,58</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>-19,33</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="inlineStr">
+        <is>
+          <t>-2,85</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>-4,5</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="inlineStr">
+        <is>
+          <t>-18,16%</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>-35,97%</t>
+        </is>
+      </c>
+      <c r="I46" s="2" t="inlineStr">
+        <is>
+          <t>-5,9%</t>
+        </is>
+      </c>
+      <c r="J46" s="2" t="inlineStr">
+        <is>
+          <t>-10,89%</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n"/>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>-22,45; 3,38</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>-34,03; -5,62</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="inlineStr">
+        <is>
+          <t>-15,33; 8,95</t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="inlineStr">
+        <is>
+          <t>-21,5; 9,72</t>
+        </is>
+      </c>
+      <c r="G47" s="2" t="inlineStr">
+        <is>
+          <t>-40,48; 8,91</t>
+        </is>
+      </c>
+      <c r="H47" s="2" t="inlineStr">
+        <is>
+          <t>-54,17; -12,31</t>
+        </is>
+      </c>
+      <c r="I47" s="2" t="inlineStr">
+        <is>
+          <t>-28,03; 21,87</t>
+        </is>
+      </c>
+      <c r="J47" s="2" t="inlineStr">
+        <is>
+          <t>-42,38; 30,25</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n"/>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>6,8</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>2,73</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>-1,53</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>10,26</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="inlineStr">
+        <is>
+          <t>25,32%</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>12,07%</t>
+        </is>
+      </c>
+      <c r="I48" s="2" t="inlineStr">
+        <is>
+          <t>-5,95%</t>
+        </is>
+      </c>
+      <c r="J48" s="2" t="inlineStr">
+        <is>
+          <t>65,02%</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n"/>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>-4,06; 17,94</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="inlineStr">
+        <is>
+          <t>-8,2; 14,65</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>-11,41; 9,45</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>-2,16; 22,07</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="inlineStr">
+        <is>
+          <t>-12,39; 89,28</t>
+        </is>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>-28,36; 95,1</t>
+        </is>
+      </c>
+      <c r="I49" s="2" t="inlineStr">
+        <is>
+          <t>-37,37; 44,61</t>
+        </is>
+      </c>
+      <c r="J49" s="2" t="inlineStr">
+        <is>
+          <t>-10,31; 214,9</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n"/>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n"/>
+      <c r="B51" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B52" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>2,02</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>7,07</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t>-0,15</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>-3,81</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="inlineStr">
+        <is>
+          <t>9,02%</t>
+        </is>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>23,42%</t>
+        </is>
+      </c>
+      <c r="I52" s="2" t="inlineStr">
+        <is>
+          <t>-0,52%</t>
+        </is>
+      </c>
+      <c r="J52" s="2" t="inlineStr">
+        <is>
+          <t>-11,2%</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n"/>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>-2,64; 6,55</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>2,51; 11,89</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>-4,83; 3,8</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="inlineStr">
+        <is>
+          <t>-9,85; 2,06</t>
+        </is>
+      </c>
+      <c r="G53" s="2" t="inlineStr">
+        <is>
+          <t>-10,42; 31,79</t>
+        </is>
+      </c>
+      <c r="H53" s="2" t="inlineStr">
+        <is>
+          <t>7,74; 43,83</t>
+        </is>
+      </c>
+      <c r="I53" s="2" t="inlineStr">
+        <is>
+          <t>-15,03; 14,54</t>
+        </is>
+      </c>
+      <c r="J53" s="2" t="inlineStr">
+        <is>
+          <t>-25,78; 7,4</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n"/>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>-7,13</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>-4,96</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>-3,09</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>-0,2</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="inlineStr">
+        <is>
+          <t>-15,7%</t>
+        </is>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>-11,0%</t>
+        </is>
+      </c>
+      <c r="I54" s="2" t="inlineStr">
+        <is>
+          <t>-6,31%</t>
+        </is>
+      </c>
+      <c r="J54" s="2" t="inlineStr">
+        <is>
+          <t>-0,5%</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n"/>
+      <c r="B55" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>-11,51; -1,76</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>-10,23; 0,33</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="inlineStr">
+        <is>
+          <t>-7,35; 1,99</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>-6,07; 5,78</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="inlineStr">
+        <is>
+          <t>-24,02; -4,12</t>
+        </is>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>-21,25; 0,76</t>
+        </is>
+      </c>
+      <c r="I55" s="2" t="inlineStr">
+        <is>
+          <t>-14,5; 4,27</t>
+        </is>
+      </c>
+      <c r="J55" s="2" t="inlineStr">
+        <is>
+          <t>-13,83; 15,66</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n"/>
+      <c r="B56" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>5,11</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>-2,11</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>3,24</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="inlineStr">
+        <is>
+          <t>4,01</t>
+        </is>
+      </c>
+      <c r="G56" s="2" t="inlineStr">
+        <is>
+          <t>15,88%</t>
+        </is>
+      </c>
+      <c r="H56" s="2" t="inlineStr">
+        <is>
+          <t>-8,55%</t>
+        </is>
+      </c>
+      <c r="I56" s="2" t="inlineStr">
+        <is>
+          <t>14,64%</t>
+        </is>
+      </c>
+      <c r="J56" s="2" t="inlineStr">
+        <is>
+          <t>15,92%</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n"/>
+      <c r="B57" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>-0,08; 9,43</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="inlineStr">
+        <is>
+          <t>-6,96; 2,49</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="inlineStr">
+        <is>
+          <t>-1,28; 6,76</t>
+        </is>
+      </c>
+      <c r="F57" s="2" t="inlineStr">
+        <is>
+          <t>-1,34; 8,79</t>
+        </is>
+      </c>
+      <c r="G57" s="2" t="inlineStr">
+        <is>
+          <t>-0,02; 32,48</t>
+        </is>
+      </c>
+      <c r="H57" s="2" t="inlineStr">
+        <is>
+          <t>-25,29; 11,48</t>
+        </is>
+      </c>
+      <c r="I57" s="2" t="inlineStr">
+        <is>
+          <t>-4,74; 33,68</t>
+        </is>
+      </c>
+      <c r="J57" s="2" t="inlineStr">
+        <is>
+          <t>-4,73; 39,85</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n"/>
+      <c r="B58" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n"/>
+      <c r="B59" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="A44:A51"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A52:A59"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
